--- a/data/trans_orig/P19C02-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C02-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A608D403-BC03-4768-9304-93FBD9086B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C784DEA-55FB-4C38-8FEB-EFF7B6572467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9B7EFF7E-2F1F-4FA7-8A1D-ED0C8A40D696}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{15A986C4-248A-44B1-A991-BCAD2F511C5D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="627">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2007 (Tasa respuesta: 78,07%)</t>
   </si>
@@ -77,1837 +77,1849 @@
     <t>32,35%</t>
   </si>
   <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
   </si>
   <si>
     <t>34,95%</t>
   </si>
   <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
     <t>28,41%</t>
   </si>
   <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
   </si>
   <si>
     <t>71,59%</t>
   </si>
   <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
   </si>
   <si>
     <t>42,44%</t>
   </si>
   <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
     <t>46,84%</t>
   </si>
   <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
   </si>
   <si>
     <t>50,07%</t>
   </si>
   <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
   </si>
   <si>
     <t>48,56%</t>
   </si>
   <si>
-    <t>51,51%</t>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
   </si>
   <si>
     <t>53,16%</t>
   </si>
   <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
   </si>
   <si>
     <t>49,93%</t>
   </si>
   <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
   </si>
   <si>
     <t>51,44%</t>
   </si>
   <si>
-    <t>48,49%</t>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
   </si>
 </sst>
 </file>
@@ -2319,7 +2331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ECF7E3-1A6E-4981-B5E2-A0CE806C5E08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1B7483-69FA-4FA5-B2FE-1E9E14517F41}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2661,7 +2673,7 @@
         <v>321</v>
       </c>
       <c r="I8" s="7">
-        <v>322482</v>
+        <v>322481</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2712,7 +2724,7 @@
         <v>437</v>
       </c>
       <c r="I9" s="7">
-        <v>440221</v>
+        <v>440220</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2941,10 +2953,10 @@
         <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,13 +2971,13 @@
         <v>188035</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>220</v>
@@ -2974,13 +2986,13 @@
         <v>213416</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>413</v>
@@ -2989,13 +3001,13 @@
         <v>401451</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,7 +3063,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3063,13 +3075,13 @@
         <v>35128</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -3078,13 +3090,13 @@
         <v>41965</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -3093,13 +3105,13 @@
         <v>77093</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3126,13 @@
         <v>135150</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>125</v>
@@ -3129,13 +3141,13 @@
         <v>131941</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>258</v>
@@ -3144,13 +3156,13 @@
         <v>267091</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,7 +3218,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3218,13 +3230,13 @@
         <v>67082</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -3233,13 +3245,13 @@
         <v>67218</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>131</v>
@@ -3248,13 +3260,13 @@
         <v>134300</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3281,13 @@
         <v>122188</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>132</v>
@@ -3284,13 +3296,13 @@
         <v>136253</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>253</v>
@@ -3299,13 +3311,13 @@
         <v>258441</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,7 +3373,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3373,13 +3385,13 @@
         <v>122835</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>132</v>
@@ -3388,13 +3400,13 @@
         <v>137907</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>249</v>
@@ -3403,13 +3415,13 @@
         <v>260742</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3436,13 @@
         <v>341490</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>392</v>
@@ -3439,13 +3451,13 @@
         <v>401461</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>729</v>
@@ -3454,13 +3466,13 @@
         <v>742950</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,7 +3528,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3528,13 +3540,13 @@
         <v>158282</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>194</v>
@@ -3543,13 +3555,13 @@
         <v>201155</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>350</v>
@@ -3558,13 +3570,13 @@
         <v>359437</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,13 +3591,13 @@
         <v>367270</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H26" s="7">
         <v>370</v>
@@ -3594,13 +3606,13 @@
         <v>390326</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>736</v>
@@ -3609,13 +3621,13 @@
         <v>757595</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3695,13 @@
         <v>702443</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>774</v>
@@ -3698,13 +3710,13 @@
         <v>796886</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M28" s="7">
         <v>1453</v>
@@ -3713,13 +3725,13 @@
         <v>1499329</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,13 +3746,13 @@
         <v>1752299</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>1902</v>
@@ -3749,13 +3761,13 @@
         <v>1941123</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>3630</v>
@@ -3764,13 +3776,13 @@
         <v>3693421</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,7 +3838,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3850,7 +3862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B1510B-D4FE-4625-8024-C670051FE157}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0DEBC1-2EAB-4C38-BC17-B8571FB7613D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3867,7 +3879,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3972,39 +3984,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,39 +4029,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,39 +4074,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4123,13 @@
         <v>94110</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>111</v>
@@ -4126,13 +4138,13 @@
         <v>123117</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>199</v>
@@ -4144,10 +4156,10 @@
         <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4174,13 @@
         <v>311172</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>291</v>
@@ -4177,13 +4189,13 @@
         <v>314706</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>584</v>
@@ -4195,10 +4207,10 @@
         <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4278,13 @@
         <v>70557</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H10" s="7">
         <v>94</v>
@@ -4281,13 +4293,13 @@
         <v>99789</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>166</v>
@@ -4296,13 +4308,13 @@
         <v>170345</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4329,13 @@
         <v>222115</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
         <v>211</v>
@@ -4332,13 +4344,13 @@
         <v>228963</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>427</v>
@@ -4347,13 +4359,13 @@
         <v>451079</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,13 +4433,13 @@
         <v>154461</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>158</v>
@@ -4436,13 +4448,13 @@
         <v>169241</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>304</v>
@@ -4451,13 +4463,13 @@
         <v>323702</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,13 +4484,13 @@
         <v>409176</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>392</v>
@@ -4487,13 +4499,13 @@
         <v>424793</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>776</v>
@@ -4502,13 +4514,13 @@
         <v>833970</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,7 +4576,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4576,13 +4588,13 @@
         <v>43915</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -4591,13 +4603,13 @@
         <v>55258</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>95</v>
@@ -4606,13 +4618,13 @@
         <v>99172</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,13 +4639,13 @@
         <v>148143</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>133</v>
@@ -4642,13 +4654,13 @@
         <v>139324</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>269</v>
@@ -4657,13 +4669,13 @@
         <v>287468</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,7 +4731,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4731,13 +4743,13 @@
         <v>76691</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H19" s="7">
         <v>69</v>
@@ -4746,13 +4758,13 @@
         <v>70676</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M19" s="7">
         <v>139</v>
@@ -4761,13 +4773,13 @@
         <v>147367</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4794,13 @@
         <v>173282</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
         <v>185</v>
@@ -4797,13 +4809,13 @@
         <v>194154</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>353</v>
@@ -4812,13 +4824,13 @@
         <v>367436</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,7 +4886,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4886,13 +4898,13 @@
         <v>158498</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>270</v>
+        <v>201</v>
       </c>
       <c r="H22" s="7">
         <v>184</v>
@@ -4901,13 +4913,13 @@
         <v>200558</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M22" s="7">
         <v>333</v>
@@ -4916,13 +4928,13 @@
         <v>359056</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4949,13 @@
         <v>415581</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>179</v>
+        <v>273</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>209</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H23" s="7">
         <v>388</v>
@@ -4952,13 +4964,13 @@
         <v>425429</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M23" s="7">
         <v>775</v>
@@ -4967,13 +4979,13 @@
         <v>841010</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,7 +5041,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5041,13 +5053,13 @@
         <v>265631</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H25" s="7">
         <v>242</v>
@@ -5056,13 +5068,13 @@
         <v>264496</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M25" s="7">
         <v>491</v>
@@ -5071,13 +5083,13 @@
         <v>530127</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5104,13 @@
         <v>368274</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H26" s="7">
         <v>404</v>
@@ -5107,13 +5119,13 @@
         <v>437798</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M26" s="7">
         <v>739</v>
@@ -5122,13 +5134,13 @@
         <v>806072</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5208,13 @@
         <v>863862</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>94</v>
+        <v>301</v>
       </c>
       <c r="H28" s="7">
         <v>913</v>
@@ -5211,13 +5223,13 @@
         <v>983135</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M28" s="7">
         <v>1727</v>
@@ -5229,10 +5241,10 @@
         <v>51</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5259,13 @@
         <v>2047744</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H29" s="7">
         <v>2004</v>
@@ -5262,13 +5274,13 @@
         <v>2165167</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M29" s="7">
         <v>3923</v>
@@ -5280,10 +5292,10 @@
         <v>60</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,7 +5351,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5363,7 +5375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE7BC82-8945-4388-96E2-4E423A612EDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0D220D-CAD5-4563-A840-15F86CBB9E40}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5380,7 +5392,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5487,13 +5499,13 @@
         <v>57675</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>62</v>
@@ -5502,13 +5514,13 @@
         <v>63760</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>115</v>
@@ -5517,13 +5529,13 @@
         <v>121434</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5550,13 @@
         <v>187543</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>177</v>
@@ -5553,13 +5565,13 @@
         <v>182574</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>345</v>
@@ -5568,13 +5580,13 @@
         <v>370117</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,13 +5654,13 @@
         <v>102720</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -5657,13 +5669,13 @@
         <v>132682</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>225</v>
@@ -5672,13 +5684,13 @@
         <v>235403</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,13 +5705,13 @@
         <v>260445</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>244</v>
@@ -5708,13 +5720,13 @@
         <v>260645</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>489</v>
@@ -5723,13 +5735,13 @@
         <v>521089</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,13 +5809,13 @@
         <v>66632</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7">
         <v>78</v>
@@ -5812,13 +5824,13 @@
         <v>77358</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="M10" s="7">
         <v>148</v>
@@ -5827,13 +5839,13 @@
         <v>143989</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,16 +5857,16 @@
         <v>233</v>
       </c>
       <c r="D11" s="7">
-        <v>223874</v>
+        <v>223875</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>26</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H11" s="7">
         <v>227</v>
@@ -5863,13 +5875,13 @@
         <v>230406</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M11" s="7">
         <v>460</v>
@@ -5878,13 +5890,13 @@
         <v>454281</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,7 +5908,7 @@
         <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>290506</v>
+        <v>290507</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5952,13 +5964,13 @@
         <v>83201</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H13" s="7">
         <v>83</v>
@@ -5967,13 +5979,13 @@
         <v>87404</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M13" s="7">
         <v>162</v>
@@ -5982,13 +5994,13 @@
         <v>170605</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +6015,13 @@
         <v>246846</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H14" s="7">
         <v>240</v>
@@ -6018,13 +6030,13 @@
         <v>261457</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M14" s="7">
         <v>475</v>
@@ -6033,13 +6045,13 @@
         <v>508303</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,7 +6107,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6107,13 +6119,13 @@
         <v>80643</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H16" s="7">
         <v>106</v>
@@ -6122,13 +6134,13 @@
         <v>100873</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M16" s="7">
         <v>184</v>
@@ -6137,13 +6149,13 @@
         <v>181516</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,13 +6170,13 @@
         <v>38579</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -6173,13 +6185,13 @@
         <v>44627</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -6188,13 +6200,13 @@
         <v>83206</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,7 +6262,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6262,13 +6274,13 @@
         <v>54716</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
@@ -6277,13 +6289,13 @@
         <v>78177</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>130</v>
@@ -6292,13 +6304,13 @@
         <v>132894</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>414</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>415</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6325,13 @@
         <v>178899</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>350</v>
+        <v>412</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H20" s="7">
         <v>164</v>
@@ -6328,13 +6340,13 @@
         <v>168960</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M20" s="7">
         <v>340</v>
@@ -6343,13 +6355,13 @@
         <v>347859</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>308</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6405,7 +6417,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6417,13 +6429,13 @@
         <v>143380</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -6432,13 +6444,13 @@
         <v>166438</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>140</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="M22" s="7">
         <v>284</v>
@@ -6447,13 +6459,13 @@
         <v>309819</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +6480,13 @@
         <v>298927</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="H23" s="7">
         <v>303</v>
@@ -6483,13 +6495,13 @@
         <v>320613</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>390</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>148</v>
       </c>
       <c r="M23" s="7">
         <v>563</v>
@@ -6498,13 +6510,13 @@
         <v>619539</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6560,7 +6572,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6572,13 +6584,13 @@
         <v>339484</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="H25" s="7">
         <v>331</v>
@@ -6587,13 +6599,13 @@
         <v>359580</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="M25" s="7">
         <v>658</v>
@@ -6602,13 +6614,13 @@
         <v>699064</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,28 +6635,28 @@
         <v>300768</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="H26" s="7">
         <v>304</v>
       </c>
       <c r="I26" s="7">
-        <v>331762</v>
+        <v>331761</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="M26" s="7">
         <v>593</v>
@@ -6653,13 +6665,13 @@
         <v>632529</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6686,7 +6698,7 @@
         <v>635</v>
       </c>
       <c r="I27" s="7">
-        <v>691342</v>
+        <v>691341</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -6727,13 +6739,13 @@
         <v>928451</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="H28" s="7">
         <v>1022</v>
@@ -6742,13 +6754,13 @@
         <v>1066273</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="M28" s="7">
         <v>1906</v>
@@ -6757,13 +6769,13 @@
         <v>1994724</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6775,16 +6787,16 @@
         <v>1646</v>
       </c>
       <c r="D29" s="7">
-        <v>1735883</v>
+        <v>1735882</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="H29" s="7">
         <v>1705</v>
@@ -6793,28 +6805,28 @@
         <v>1801042</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="M29" s="7">
         <v>3351</v>
       </c>
       <c r="N29" s="7">
-        <v>3536925</v>
+        <v>3536924</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6826,7 +6838,7 @@
         <v>2530</v>
       </c>
       <c r="D30" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -6856,7 +6868,7 @@
         <v>5257</v>
       </c>
       <c r="N30" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6870,7 +6882,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6894,7 +6906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE70ED83-25AD-49B7-A1BE-4044C8FCAB59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6EBADB-310C-4C76-A8D6-FCBA89DE2958}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6911,7 +6923,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7018,13 +7030,13 @@
         <v>121967</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="H4" s="7">
         <v>257</v>
@@ -7033,13 +7045,13 @@
         <v>123877</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="M4" s="7">
         <v>404</v>
@@ -7048,13 +7060,13 @@
         <v>245845</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7069,13 +7081,13 @@
         <v>133303</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="H5" s="7">
         <v>274</v>
@@ -7084,13 +7096,13 @@
         <v>145567</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>443</v>
+        <v>482</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="M5" s="7">
         <v>444</v>
@@ -7099,13 +7111,13 @@
         <v>278870</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,13 +7185,13 @@
         <v>188228</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="H7" s="7">
         <v>239</v>
@@ -7188,13 +7200,13 @@
         <v>190405</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="M7" s="7">
         <v>365</v>
@@ -7203,13 +7215,13 @@
         <v>378632</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>291</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,13 +7236,13 @@
         <v>319276</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="H8" s="7">
         <v>457</v>
@@ -7239,13 +7251,13 @@
         <v>349689</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="M8" s="7">
         <v>702</v>
@@ -7254,13 +7266,13 @@
         <v>668966</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>300</v>
+        <v>503</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,13 +7340,13 @@
         <v>72013</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="H10" s="7">
         <v>131</v>
@@ -7343,13 +7355,13 @@
         <v>96147</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>514</v>
+        <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>509</v>
       </c>
       <c r="M10" s="7">
         <v>204</v>
@@ -7358,13 +7370,13 @@
         <v>168159</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>511</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,13 +7391,13 @@
         <v>234340</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="H11" s="7">
         <v>386</v>
@@ -7394,13 +7406,13 @@
         <v>262099</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>521</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>516</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="M11" s="7">
         <v>657</v>
@@ -7409,13 +7421,13 @@
         <v>496440</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,13 +7495,13 @@
         <v>161349</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H13" s="7">
         <v>263</v>
@@ -7498,13 +7510,13 @@
         <v>190193</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="M13" s="7">
         <v>395</v>
@@ -7513,13 +7525,13 @@
         <v>351541</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,13 +7546,13 @@
         <v>158301</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H14" s="7">
         <v>331</v>
@@ -7549,13 +7561,13 @@
         <v>235959</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="M14" s="7">
         <v>487</v>
@@ -7564,13 +7576,13 @@
         <v>394261</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7626,7 +7638,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7638,13 +7650,13 @@
         <v>161113</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H16" s="7">
         <v>419</v>
@@ -7653,13 +7665,13 @@
         <v>198112</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="M16" s="7">
         <v>642</v>
@@ -7668,13 +7680,13 @@
         <v>359225</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,13 +7701,13 @@
         <v>23956</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -7704,13 +7716,13 @@
         <v>26813</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
@@ -7719,13 +7731,13 @@
         <v>50769</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7781,7 +7793,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7793,13 +7805,13 @@
         <v>47180</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
@@ -7808,13 +7820,13 @@
         <v>53561</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>562</v>
       </c>
       <c r="M19" s="7">
         <v>127</v>
@@ -7823,13 +7835,13 @@
         <v>100741</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,13 +7856,13 @@
         <v>213597</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H20" s="7">
         <v>364</v>
@@ -7859,13 +7871,13 @@
         <v>210647</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>570</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="M20" s="7">
         <v>657</v>
@@ -7874,13 +7886,13 @@
         <v>424244</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7936,7 +7948,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7948,13 +7960,13 @@
         <v>286674</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>579</v>
       </c>
       <c r="H22" s="7">
         <v>426</v>
@@ -7963,13 +7975,13 @@
         <v>422276</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M22" s="7">
         <v>693</v>
@@ -7978,13 +7990,13 @@
         <v>708950</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7999,13 +8011,13 @@
         <v>321329</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>587</v>
       </c>
       <c r="H23" s="7">
         <v>497</v>
@@ -8014,13 +8026,13 @@
         <v>359433</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="M23" s="7">
         <v>812</v>
@@ -8029,13 +8041,13 @@
         <v>680762</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8091,7 +8103,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8103,13 +8115,13 @@
         <v>496413</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H25" s="7">
         <v>707</v>
@@ -8118,13 +8130,13 @@
         <v>586377</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>596</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>597</v>
       </c>
       <c r="M25" s="7">
         <v>1161</v>
@@ -8133,13 +8145,13 @@
         <v>1082790</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8157,10 +8169,10 @@
         <v>600</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>108</v>
+        <v>601</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H26" s="7">
         <v>332</v>
@@ -8169,13 +8181,13 @@
         <v>265692</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M26" s="7">
         <v>622</v>
@@ -8184,13 +8196,13 @@
         <v>603564</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>256</v>
+        <v>607</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8255,16 +8267,16 @@
         <v>1473</v>
       </c>
       <c r="D28" s="7">
-        <v>1534937</v>
+        <v>1534936</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="H28" s="7">
         <v>2518</v>
@@ -8273,13 +8285,13 @@
         <v>1860948</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="M28" s="7">
         <v>3991</v>
@@ -8288,13 +8300,13 @@
         <v>3395885</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>484</v>
+        <v>616</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8309,13 +8321,13 @@
         <v>1741975</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="H29" s="7">
         <v>2699</v>
@@ -8324,13 +8336,13 @@
         <v>1855900</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="M29" s="7">
         <v>4479</v>
@@ -8339,13 +8351,13 @@
         <v>3597875</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>492</v>
+        <v>626</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8357,7 +8369,7 @@
         <v>3253</v>
       </c>
       <c r="D30" s="7">
-        <v>3276912</v>
+        <v>3276911</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8401,7 +8413,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C02-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C02-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C784DEA-55FB-4C38-8FEB-EFF7B6572467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3FEEBB0-07E8-44C9-BADD-7759BD6A3D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{15A986C4-248A-44B1-A991-BCAD2F511C5D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9D111144-BEEB-4626-A278-A052C57B6E68}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="619">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2007 (Tasa respuesta: 78,07%)</t>
   </si>
@@ -77,385 +77,403 @@
     <t>32,35%</t>
   </si>
   <si>
-    <t>25,62%</t>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
   </si>
   <si>
     <t>39,05%</t>
   </si>
   <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>67,65%</t>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
   </si>
   <si>
     <t>60,95%</t>
   </si>
   <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>25,77%</t>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
   </si>
   <si>
     <t>21,78%</t>
   </si>
   <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
   </si>
   <si>
     <t>78,22%</t>
   </si>
   <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
     <t>74,02%</t>
   </si>
   <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -464,1131 +482,1101 @@
     <t>30,12%</t>
   </si>
   <si>
-    <t>25,82%</t>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
   </si>
   <si>
     <t>34,01%</t>
   </si>
   <si>
-    <t>29,96%</t>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
   </si>
   <si>
     <t>37,92%</t>
   </si>
   <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
   </si>
   <si>
     <t>62,08%</t>
   </si>
   <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
   </si>
   <si>
     <t>26,84%</t>
   </si>
   <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
   </si>
   <si>
     <t>73,16%</t>
   </si>
   <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
     <t>68,54%</t>
   </si>
   <si>
@@ -1625,9 +1613,6 @@
     <t>47,14%</t>
   </si>
   <si>
-    <t>42,32%</t>
-  </si>
-  <si>
     <t>51,38%</t>
   </si>
   <si>
@@ -1655,9 +1640,6 @@
     <t>48,62%</t>
   </si>
   <si>
-    <t>57,68%</t>
-  </si>
-  <si>
     <t>87,06%</t>
   </si>
   <si>
@@ -1823,9 +1805,6 @@
     <t>64,77%</t>
   </si>
   <si>
-    <t>68,82%</t>
-  </si>
-  <si>
     <t>65,54%</t>
   </si>
   <si>
@@ -1848,9 +1827,6 @@
   </si>
   <si>
     <t>53,0%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
   </si>
   <si>
     <t>28,1%</t>
@@ -2331,7 +2307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1B7483-69FA-4FA5-B2FE-1E9E14517F41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCF4759-3AC4-47D5-B22E-E3AE57B52282}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2673,7 +2649,7 @@
         <v>321</v>
       </c>
       <c r="I8" s="7">
-        <v>322481</v>
+        <v>322482</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2724,7 +2700,7 @@
         <v>437</v>
       </c>
       <c r="I9" s="7">
-        <v>440220</v>
+        <v>440221</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2953,10 +2929,10 @@
         <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2947,13 @@
         <v>188035</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>220</v>
@@ -2986,13 +2962,13 @@
         <v>213416</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>413</v>
@@ -3001,13 +2977,13 @@
         <v>401451</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,7 +3039,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3075,13 +3051,13 @@
         <v>35128</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -3090,13 +3066,13 @@
         <v>41965</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -3105,13 +3081,13 @@
         <v>77093</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3102,13 @@
         <v>135150</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>125</v>
@@ -3141,13 +3117,13 @@
         <v>131941</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>258</v>
@@ -3156,13 +3132,13 @@
         <v>267091</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,7 +3194,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3230,13 +3206,13 @@
         <v>67082</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -3245,13 +3221,13 @@
         <v>67218</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>131</v>
@@ -3260,13 +3236,13 @@
         <v>134300</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3257,13 @@
         <v>122188</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>132</v>
@@ -3296,13 +3272,13 @@
         <v>136253</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>253</v>
@@ -3311,13 +3287,13 @@
         <v>258441</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,7 +3349,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3385,13 +3361,13 @@
         <v>122835</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>132</v>
@@ -3400,13 +3376,13 @@
         <v>137907</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>249</v>
@@ -3415,13 +3391,13 @@
         <v>260742</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3412,13 @@
         <v>341490</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>392</v>
@@ -3451,13 +3427,13 @@
         <v>401461</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>729</v>
@@ -3466,13 +3442,13 @@
         <v>742950</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,7 +3504,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3540,13 +3516,13 @@
         <v>158282</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>194</v>
@@ -3555,13 +3531,13 @@
         <v>201155</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>350</v>
@@ -3570,13 +3546,13 @@
         <v>359437</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3567,13 @@
         <v>367270</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>370</v>
@@ -3606,13 +3582,13 @@
         <v>390326</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>736</v>
@@ -3621,13 +3597,13 @@
         <v>757595</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,13 +3671,13 @@
         <v>702443</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>774</v>
@@ -3710,13 +3686,13 @@
         <v>796886</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1453</v>
@@ -3725,13 +3701,13 @@
         <v>1499329</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3722,13 @@
         <v>1752299</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>1902</v>
@@ -3761,28 +3737,28 @@
         <v>1941123</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>3630</v>
       </c>
       <c r="N29" s="7">
-        <v>3693421</v>
+        <v>3693422</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,7 +3800,7 @@
         <v>5083</v>
       </c>
       <c r="N30" s="7">
-        <v>5192750</v>
+        <v>5192751</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3838,7 +3814,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3862,7 +3838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0DEBC1-2EAB-4C38-BC17-B8571FB7613D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF448132-4EBD-4E05-B1A4-DEF00860956F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3879,7 +3855,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3984,39 +3960,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,39 +4005,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,39 +4050,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4099,13 @@
         <v>94110</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>111</v>
@@ -4138,13 +4114,13 @@
         <v>123117</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>199</v>
@@ -4156,10 +4132,10 @@
         <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4150,13 @@
         <v>311172</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="H8" s="7">
         <v>291</v>
@@ -4189,13 +4165,13 @@
         <v>314706</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>584</v>
@@ -4207,10 +4183,10 @@
         <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,13 +4254,13 @@
         <v>70557</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>94</v>
@@ -4293,13 +4269,13 @@
         <v>99789</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>166</v>
@@ -4308,13 +4284,13 @@
         <v>170345</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,13 +4305,13 @@
         <v>222115</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>211</v>
@@ -4344,13 +4320,13 @@
         <v>228963</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>427</v>
@@ -4359,13 +4335,13 @@
         <v>451079</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,13 +4409,13 @@
         <v>154461</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>158</v>
@@ -4448,13 +4424,13 @@
         <v>169241</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>304</v>
@@ -4463,13 +4439,13 @@
         <v>323702</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,13 +4460,13 @@
         <v>409176</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>392</v>
@@ -4499,13 +4475,13 @@
         <v>424793</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>776</v>
@@ -4514,13 +4490,13 @@
         <v>833970</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,7 +4552,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4588,13 +4564,13 @@
         <v>43915</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -4603,13 +4579,13 @@
         <v>55258</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>95</v>
@@ -4618,13 +4594,13 @@
         <v>99172</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,13 +4615,13 @@
         <v>148143</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>133</v>
@@ -4654,13 +4630,13 @@
         <v>139324</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>269</v>
@@ -4669,13 +4645,13 @@
         <v>287468</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,7 +4707,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4743,13 +4719,13 @@
         <v>76691</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>69</v>
@@ -4758,13 +4734,13 @@
         <v>70676</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>139</v>
@@ -4773,13 +4749,13 @@
         <v>147367</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4770,13 @@
         <v>173282</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="H20" s="7">
         <v>185</v>
@@ -4809,13 +4785,13 @@
         <v>194154</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="M20" s="7">
         <v>353</v>
@@ -4824,13 +4800,13 @@
         <v>367436</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,7 +4862,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4898,13 +4874,13 @@
         <v>158498</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>201</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>184</v>
@@ -4913,13 +4889,13 @@
         <v>200558</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>333</v>
@@ -4928,13 +4904,13 @@
         <v>359056</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>271</v>
+        <v>219</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4925,13 @@
         <v>415581</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>209</v>
+        <v>280</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="H23" s="7">
         <v>388</v>
@@ -4964,13 +4940,13 @@
         <v>425429</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="M23" s="7">
         <v>775</v>
@@ -4979,13 +4955,13 @@
         <v>841010</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,7 +5017,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5053,13 +5029,13 @@
         <v>265631</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="H25" s="7">
         <v>242</v>
@@ -5068,13 +5044,13 @@
         <v>264496</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="M25" s="7">
         <v>491</v>
@@ -5083,13 +5059,13 @@
         <v>530127</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5080,13 @@
         <v>368274</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H26" s="7">
         <v>404</v>
@@ -5119,13 +5095,13 @@
         <v>437798</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>739</v>
@@ -5134,13 +5110,13 @@
         <v>806072</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5184,13 @@
         <v>863862</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>913</v>
@@ -5223,13 +5199,13 @@
         <v>983135</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>302</v>
+        <v>56</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>303</v>
+        <v>70</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M28" s="7">
         <v>1727</v>
@@ -5241,10 +5217,10 @@
         <v>51</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5235,13 @@
         <v>2047744</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H29" s="7">
         <v>2004</v>
@@ -5274,13 +5250,13 @@
         <v>2165167</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>310</v>
+        <v>64</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="M29" s="7">
         <v>3923</v>
@@ -5292,10 +5268,10 @@
         <v>60</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,7 +5327,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5375,7 +5351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0D220D-CAD5-4563-A840-15F86CBB9E40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E38B9D-A8FF-4376-91F5-FCED4993B15E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5392,7 +5368,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5499,13 +5475,13 @@
         <v>57675</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>62</v>
@@ -5514,13 +5490,13 @@
         <v>63760</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>115</v>
@@ -5529,13 +5505,13 @@
         <v>121434</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5526,13 @@
         <v>187543</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>177</v>
@@ -5565,13 +5541,13 @@
         <v>182574</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>345</v>
@@ -5580,13 +5556,13 @@
         <v>370117</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,13 +5630,13 @@
         <v>102720</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -5669,13 +5645,13 @@
         <v>132682</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>167</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M7" s="7">
         <v>225</v>
@@ -5684,10 +5660,10 @@
         <v>235403</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>57</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>342</v>
@@ -5726,7 +5702,7 @@
         <v>347</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>489</v>
@@ -5735,13 +5711,13 @@
         <v>521089</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>350</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,13 +5785,13 @@
         <v>66632</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="H10" s="7">
         <v>78</v>
@@ -5824,13 +5800,13 @@
         <v>77358</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M10" s="7">
         <v>148</v>
@@ -5839,13 +5815,13 @@
         <v>143989</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,10 +5836,10 @@
         <v>223875</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>361</v>
@@ -5964,13 +5940,13 @@
         <v>83201</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="H13" s="7">
         <v>83</v>
@@ -5979,13 +5955,13 @@
         <v>87404</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>372</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>373</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
         <v>162</v>
@@ -5994,13 +5970,13 @@
         <v>170605</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,13 +5991,13 @@
         <v>246846</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>377</v>
+        <v>23</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H14" s="7">
         <v>240</v>
@@ -6030,13 +6006,13 @@
         <v>261457</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M14" s="7">
         <v>475</v>
@@ -6045,13 +6021,13 @@
         <v>508303</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,7 +6083,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6119,13 +6095,13 @@
         <v>80643</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H16" s="7">
         <v>106</v>
@@ -6134,13 +6110,13 @@
         <v>100873</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M16" s="7">
         <v>184</v>
@@ -6149,13 +6125,13 @@
         <v>181516</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>312</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,13 +6146,13 @@
         <v>38579</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -6185,13 +6161,13 @@
         <v>44627</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -6200,13 +6176,13 @@
         <v>83206</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>307</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,7 +6238,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6274,13 +6250,13 @@
         <v>54716</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
@@ -6289,13 +6265,13 @@
         <v>78177</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>323</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="M19" s="7">
         <v>130</v>
@@ -6304,13 +6280,13 @@
         <v>132894</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>402</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>301</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6301,13 @@
         <v>178899</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="H20" s="7">
         <v>164</v>
@@ -6340,13 +6316,13 @@
         <v>168960</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>414</v>
+        <v>331</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="M20" s="7">
         <v>340</v>
@@ -6355,13 +6331,13 @@
         <v>347859</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>308</v>
+        <v>410</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,7 +6393,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6429,13 +6405,13 @@
         <v>143380</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>187</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -6444,13 +6420,13 @@
         <v>166438</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>140</v>
+        <v>415</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="M22" s="7">
         <v>284</v>
@@ -6459,13 +6435,13 @@
         <v>309819</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,13 +6456,13 @@
         <v>298927</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>427</v>
+        <v>194</v>
       </c>
       <c r="H23" s="7">
         <v>303</v>
@@ -6495,13 +6471,13 @@
         <v>320613</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>148</v>
+        <v>424</v>
       </c>
       <c r="M23" s="7">
         <v>563</v>
@@ -6510,13 +6486,13 @@
         <v>619539</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,7 +6548,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6584,13 +6560,13 @@
         <v>339484</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H25" s="7">
         <v>331</v>
@@ -6599,13 +6575,13 @@
         <v>359580</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="M25" s="7">
         <v>658</v>
@@ -6614,13 +6590,13 @@
         <v>699064</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,13 +6611,13 @@
         <v>300768</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H26" s="7">
         <v>304</v>
@@ -6650,13 +6626,13 @@
         <v>331761</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="M26" s="7">
         <v>593</v>
@@ -6665,13 +6641,13 @@
         <v>632529</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,13 +6715,13 @@
         <v>928451</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>190</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="H28" s="7">
         <v>1022</v>
@@ -6754,13 +6730,13 @@
         <v>1066273</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="M28" s="7">
         <v>1906</v>
@@ -6769,13 +6745,13 @@
         <v>1994724</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,16 +6763,16 @@
         <v>1646</v>
       </c>
       <c r="D29" s="7">
-        <v>1735882</v>
+        <v>1735883</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>461</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>1705</v>
@@ -6805,13 +6781,13 @@
         <v>1801042</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="M29" s="7">
         <v>3351</v>
@@ -6820,13 +6796,13 @@
         <v>3536924</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,7 +6814,7 @@
         <v>2530</v>
       </c>
       <c r="D30" s="7">
-        <v>2664333</v>
+        <v>2664334</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -6882,7 +6858,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6906,7 +6882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6EBADB-310C-4C76-A8D6-FCBA89DE2958}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043E2A05-1630-4B31-9E57-AC8AFEBB5D30}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6923,7 +6899,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7030,13 +7006,13 @@
         <v>121967</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H4" s="7">
         <v>257</v>
@@ -7045,13 +7021,13 @@
         <v>123877</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="M4" s="7">
         <v>404</v>
@@ -7060,13 +7036,13 @@
         <v>245845</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7081,13 +7057,13 @@
         <v>133303</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H5" s="7">
         <v>274</v>
@@ -7096,13 +7072,13 @@
         <v>145567</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="M5" s="7">
         <v>444</v>
@@ -7111,13 +7087,13 @@
         <v>278870</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7185,13 +7161,13 @@
         <v>188228</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="H7" s="7">
         <v>239</v>
@@ -7200,13 +7176,13 @@
         <v>190405</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="M7" s="7">
         <v>365</v>
@@ -7215,13 +7191,13 @@
         <v>378632</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7236,13 +7212,13 @@
         <v>319276</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="H8" s="7">
         <v>457</v>
@@ -7251,13 +7227,13 @@
         <v>349689</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="M8" s="7">
         <v>702</v>
@@ -7266,13 +7242,13 @@
         <v>668966</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7340,13 +7316,13 @@
         <v>72013</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="H10" s="7">
         <v>131</v>
@@ -7355,13 +7331,13 @@
         <v>96147</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>502</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="M10" s="7">
         <v>204</v>
@@ -7370,13 +7346,13 @@
         <v>168159</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7391,13 +7367,13 @@
         <v>234340</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H11" s="7">
         <v>386</v>
@@ -7406,13 +7382,13 @@
         <v>262099</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>511</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="M11" s="7">
         <v>657</v>
@@ -7421,13 +7397,13 @@
         <v>496440</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7495,13 +7471,13 @@
         <v>161349</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H13" s="7">
         <v>263</v>
@@ -7510,13 +7486,13 @@
         <v>190193</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="M13" s="7">
         <v>395</v>
@@ -7525,13 +7501,13 @@
         <v>351541</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>528</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7546,13 +7522,13 @@
         <v>158301</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="H14" s="7">
         <v>331</v>
@@ -7561,13 +7537,13 @@
         <v>235959</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="M14" s="7">
         <v>487</v>
@@ -7576,13 +7552,13 @@
         <v>394261</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>538</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,7 +7614,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7650,13 +7626,13 @@
         <v>161113</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="H16" s="7">
         <v>419</v>
@@ -7665,13 +7641,13 @@
         <v>198112</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="M16" s="7">
         <v>642</v>
@@ -7680,13 +7656,13 @@
         <v>359225</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7701,13 +7677,13 @@
         <v>23956</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -7716,13 +7692,13 @@
         <v>26813</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
@@ -7731,13 +7707,13 @@
         <v>50769</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,7 +7769,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7805,13 +7781,13 @@
         <v>47180</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
@@ -7820,13 +7796,13 @@
         <v>53561</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="M19" s="7">
         <v>127</v>
@@ -7835,13 +7811,13 @@
         <v>100741</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7856,13 +7832,13 @@
         <v>213597</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="H20" s="7">
         <v>364</v>
@@ -7871,13 +7847,13 @@
         <v>210647</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="M20" s="7">
         <v>657</v>
@@ -7886,13 +7862,13 @@
         <v>424244</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,7 +7924,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7960,13 +7936,13 @@
         <v>286674</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="H22" s="7">
         <v>426</v>
@@ -7975,13 +7951,13 @@
         <v>422276</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="M22" s="7">
         <v>693</v>
@@ -7990,13 +7966,13 @@
         <v>708950</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8011,13 +7987,13 @@
         <v>321329</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="H23" s="7">
         <v>497</v>
@@ -8026,13 +8002,13 @@
         <v>359433</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="M23" s="7">
         <v>812</v>
@@ -8041,13 +8017,13 @@
         <v>680762</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8103,7 +8079,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8115,13 +8091,13 @@
         <v>496413</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="H25" s="7">
         <v>707</v>
@@ -8130,13 +8106,13 @@
         <v>586377</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>594</v>
+        <v>45</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="M25" s="7">
         <v>1161</v>
@@ -8145,13 +8121,13 @@
         <v>1082790</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8166,13 +8142,13 @@
         <v>337872</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="H26" s="7">
         <v>332</v>
@@ -8181,13 +8157,13 @@
         <v>265692</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>603</v>
+        <v>37</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="M26" s="7">
         <v>622</v>
@@ -8196,13 +8172,13 @@
         <v>603564</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8270,13 +8246,13 @@
         <v>1534936</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="H28" s="7">
         <v>2518</v>
@@ -8285,13 +8261,13 @@
         <v>1860948</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="M28" s="7">
         <v>3991</v>
@@ -8300,13 +8276,13 @@
         <v>3395885</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8321,13 +8297,13 @@
         <v>1741975</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="H29" s="7">
         <v>2699</v>
@@ -8336,13 +8312,13 @@
         <v>1855900</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="M29" s="7">
         <v>4479</v>
@@ -8351,13 +8327,13 @@
         <v>3597875</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8413,7 +8389,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C02-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C02-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3FEEBB0-07E8-44C9-BADD-7759BD6A3D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EFD724D-79F6-482B-9E67-AA1258383388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9D111144-BEEB-4626-A278-A052C57B6E68}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ABE879C3-04F2-4878-812C-22BBC237735F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="623">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2007 (Tasa respuesta: 78,07%)</t>
   </si>
@@ -71,1831 +71,1843 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>32,35%</t>
   </si>
   <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
     <t>25,21%</t>
   </si>
   <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
   </si>
   <si>
     <t>74,79%</t>
   </si>
   <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
   </si>
   <si>
     <t>31,18%</t>
   </si>
   <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
+    <t>28,33%</t>
   </si>
   <si>
     <t>34,42%</t>
   </si>
   <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
     <t>35,79%</t>
   </si>
   <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
+    <t>42,14%</t>
   </si>
   <si>
     <t>46,84%</t>
   </si>
   <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
   </si>
   <si>
     <t>50,07%</t>
   </si>
   <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
   </si>
   <si>
     <t>48,56%</t>
   </si>
   <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
+    <t>51,51%</t>
   </si>
   <si>
     <t>53,16%</t>
   </si>
   <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
   </si>
   <si>
     <t>49,93%</t>
   </si>
   <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
   </si>
   <si>
     <t>51,44%</t>
   </si>
   <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
+    <t>48,49%</t>
   </si>
 </sst>
 </file>
@@ -2307,7 +2319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCF4759-3AC4-47D5-B22E-E3AE57B52282}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F166FC2-FFF2-4D12-AE6E-8F2AEB83D190}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3701,13 +3713,13 @@
         <v>1499329</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,13 +3734,13 @@
         <v>1752299</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>1902</v>
@@ -3737,28 +3749,28 @@
         <v>1941123</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>3630</v>
       </c>
       <c r="N29" s="7">
-        <v>3693422</v>
+        <v>3693421</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,7 +3812,7 @@
         <v>5083</v>
       </c>
       <c r="N30" s="7">
-        <v>5192751</v>
+        <v>5192750</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3814,7 +3826,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3838,7 +3850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF448132-4EBD-4E05-B1A4-DEF00860956F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63953E1-62E0-4FA2-BE19-FB6E919DB114}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3855,7 +3867,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3960,39 +3972,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,39 +4017,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,39 +4062,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,13 +4111,13 @@
         <v>94110</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>111</v>
@@ -4114,13 +4126,13 @@
         <v>123117</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>199</v>
@@ -4132,10 +4144,10 @@
         <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,13 +4162,13 @@
         <v>311172</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H8" s="7">
         <v>291</v>
@@ -4165,13 +4177,13 @@
         <v>314706</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>584</v>
@@ -4183,10 +4195,10 @@
         <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,13 +4266,13 @@
         <v>70557</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>94</v>
@@ -4269,13 +4281,13 @@
         <v>99789</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>166</v>
@@ -4284,13 +4296,13 @@
         <v>170345</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,13 +4317,13 @@
         <v>222115</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>211</v>
@@ -4320,13 +4332,13 @@
         <v>228963</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>427</v>
@@ -4335,13 +4347,13 @@
         <v>451079</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,13 +4421,13 @@
         <v>154461</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>158</v>
@@ -4424,13 +4436,13 @@
         <v>169241</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>304</v>
@@ -4439,13 +4451,13 @@
         <v>323702</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4472,13 @@
         <v>409176</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>392</v>
@@ -4475,13 +4487,13 @@
         <v>424793</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>776</v>
@@ -4490,13 +4502,13 @@
         <v>833970</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,13 +4576,13 @@
         <v>43915</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -4579,13 +4591,13 @@
         <v>55258</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>95</v>
@@ -4594,13 +4606,13 @@
         <v>99172</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,13 +4627,13 @@
         <v>148143</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H17" s="7">
         <v>133</v>
@@ -4630,13 +4642,13 @@
         <v>139324</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>269</v>
@@ -4645,13 +4657,13 @@
         <v>287468</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,13 +4731,13 @@
         <v>76691</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>69</v>
@@ -4734,13 +4746,13 @@
         <v>70676</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>139</v>
@@ -4749,13 +4761,13 @@
         <v>147367</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,13 +4782,13 @@
         <v>173282</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>185</v>
@@ -4785,13 +4797,13 @@
         <v>194154</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>353</v>
@@ -4800,13 +4812,13 @@
         <v>367436</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,13 +4886,13 @@
         <v>158498</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>170</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H22" s="7">
         <v>184</v>
@@ -4889,13 +4901,13 @@
         <v>200558</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M22" s="7">
         <v>333</v>
@@ -4904,13 +4916,13 @@
         <v>359056</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>219</v>
+        <v>275</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4937,13 @@
         <v>415581</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>279</v>
+        <v>179</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
         <v>388</v>
@@ -4940,13 +4952,13 @@
         <v>425429</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
         <v>775</v>
@@ -4955,13 +4967,13 @@
         <v>841010</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,13 +5041,13 @@
         <v>265631</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H25" s="7">
         <v>242</v>
@@ -5044,13 +5056,13 @@
         <v>264496</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M25" s="7">
         <v>491</v>
@@ -5059,13 +5071,13 @@
         <v>530127</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5092,13 @@
         <v>368274</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H26" s="7">
         <v>404</v>
@@ -5095,13 +5107,13 @@
         <v>437798</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>739</v>
@@ -5110,13 +5122,13 @@
         <v>806072</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,13 +5196,13 @@
         <v>863862</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>94</v>
       </c>
       <c r="H28" s="7">
         <v>913</v>
@@ -5199,13 +5211,13 @@
         <v>983135</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>56</v>
+        <v>305</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>70</v>
+        <v>306</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M28" s="7">
         <v>1727</v>
@@ -5217,10 +5229,10 @@
         <v>51</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5247,13 @@
         <v>2047744</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H29" s="7">
         <v>2004</v>
@@ -5250,13 +5262,13 @@
         <v>2165167</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>64</v>
+        <v>312</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M29" s="7">
         <v>3923</v>
@@ -5327,7 +5339,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5351,7 +5363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E38B9D-A8FF-4376-91F5-FCED4993B15E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B782A4-3CD3-4FD9-969D-E2B41E688F2A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5648,10 +5660,10 @@
         <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>167</v>
+        <v>340</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>225</v>
@@ -5660,13 +5672,13 @@
         <v>235403</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>57</v>
+        <v>343</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,13 +5693,13 @@
         <v>260445</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>244</v>
@@ -5696,13 +5708,13 @@
         <v>260645</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>489</v>
@@ -5711,13 +5723,13 @@
         <v>521089</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>66</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,13 +5797,13 @@
         <v>66632</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>78</v>
@@ -5800,13 +5812,13 @@
         <v>77358</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M10" s="7">
         <v>148</v>
@@ -5815,13 +5827,13 @@
         <v>143989</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,16 +5845,16 @@
         <v>233</v>
       </c>
       <c r="D11" s="7">
-        <v>223875</v>
+        <v>223874</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>227</v>
@@ -5851,13 +5863,13 @@
         <v>230406</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>460</v>
@@ -5866,13 +5878,13 @@
         <v>454281</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5884,7 +5896,7 @@
         <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>290507</v>
+        <v>290506</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5940,13 +5952,13 @@
         <v>83201</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>12</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>83</v>
@@ -5955,13 +5967,13 @@
         <v>87404</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>162</v>
@@ -5970,13 +5982,13 @@
         <v>170605</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,13 +6003,13 @@
         <v>246846</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>23</v>
+        <v>381</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="H14" s="7">
         <v>240</v>
@@ -6006,13 +6018,13 @@
         <v>261457</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>247</v>
+        <v>385</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="M14" s="7">
         <v>475</v>
@@ -6021,13 +6033,13 @@
         <v>508303</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,13 +6107,13 @@
         <v>80643</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="H16" s="7">
         <v>106</v>
@@ -6110,13 +6122,13 @@
         <v>100873</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="M16" s="7">
         <v>184</v>
@@ -6125,13 +6137,13 @@
         <v>181516</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>312</v>
+        <v>396</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>122</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6146,13 +6158,13 @@
         <v>38579</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -6161,13 +6173,13 @@
         <v>44627</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -6176,13 +6188,13 @@
         <v>83206</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>307</v>
+        <v>405</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,13 +6262,13 @@
         <v>54716</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>398</v>
+        <v>340</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
@@ -6265,13 +6277,13 @@
         <v>78177</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>323</v>
+        <v>410</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="M19" s="7">
         <v>130</v>
@@ -6280,13 +6292,13 @@
         <v>132894</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,13 +6313,13 @@
         <v>178899</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>405</v>
+        <v>350</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>164</v>
@@ -6316,13 +6328,13 @@
         <v>168960</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>331</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>340</v>
@@ -6331,13 +6343,13 @@
         <v>347859</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6405,13 +6417,13 @@
         <v>143380</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>187</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -6420,13 +6432,13 @@
         <v>166438</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>284</v>
@@ -6435,13 +6447,13 @@
         <v>309819</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,13 +6468,13 @@
         <v>298927</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>194</v>
+        <v>435</v>
       </c>
       <c r="H23" s="7">
         <v>303</v>
@@ -6471,13 +6483,13 @@
         <v>320613</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="M23" s="7">
         <v>563</v>
@@ -6486,13 +6498,13 @@
         <v>619539</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6560,13 +6572,13 @@
         <v>339484</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="H25" s="7">
         <v>331</v>
@@ -6575,13 +6587,13 @@
         <v>359580</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="M25" s="7">
         <v>658</v>
@@ -6590,13 +6602,13 @@
         <v>699064</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6611,28 +6623,28 @@
         <v>300768</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="H26" s="7">
         <v>304</v>
       </c>
       <c r="I26" s="7">
-        <v>331761</v>
+        <v>331762</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="M26" s="7">
         <v>593</v>
@@ -6641,13 +6653,13 @@
         <v>632529</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6674,7 +6686,7 @@
         <v>635</v>
       </c>
       <c r="I27" s="7">
-        <v>691341</v>
+        <v>691342</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -6715,13 +6727,13 @@
         <v>928451</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>190</v>
+        <v>461</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="H28" s="7">
         <v>1022</v>
@@ -6730,13 +6742,13 @@
         <v>1066273</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="M28" s="7">
         <v>1906</v>
@@ -6745,13 +6757,13 @@
         <v>1994724</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,13 +6778,13 @@
         <v>1735883</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>471</v>
       </c>
       <c r="H29" s="7">
         <v>1705</v>
@@ -6781,28 +6793,28 @@
         <v>1801042</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="M29" s="7">
         <v>3351</v>
       </c>
       <c r="N29" s="7">
-        <v>3536924</v>
+        <v>3536925</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6844,7 +6856,7 @@
         <v>5257</v>
       </c>
       <c r="N30" s="7">
-        <v>5531648</v>
+        <v>5531649</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6858,7 +6870,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6882,7 +6894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043E2A05-1630-4B31-9E57-AC8AFEBB5D30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97AEDCA-3EE6-4F9C-9BBB-226111C991DA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6899,7 +6911,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7006,13 +7018,13 @@
         <v>121967</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="H4" s="7">
         <v>257</v>
@@ -7021,13 +7033,13 @@
         <v>123877</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="M4" s="7">
         <v>404</v>
@@ -7036,13 +7048,13 @@
         <v>245845</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7057,13 +7069,13 @@
         <v>133303</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="H5" s="7">
         <v>274</v>
@@ -7072,13 +7084,13 @@
         <v>145567</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="M5" s="7">
         <v>444</v>
@@ -7087,13 +7099,13 @@
         <v>278870</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,13 +7173,13 @@
         <v>188228</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="H7" s="7">
         <v>239</v>
@@ -7176,13 +7188,13 @@
         <v>190405</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="M7" s="7">
         <v>365</v>
@@ -7191,13 +7203,13 @@
         <v>378632</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>489</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7212,13 +7224,13 @@
         <v>319276</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="H8" s="7">
         <v>457</v>
@@ -7227,13 +7239,13 @@
         <v>349689</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="M8" s="7">
         <v>702</v>
@@ -7242,13 +7254,13 @@
         <v>668966</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>497</v>
+        <v>300</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,13 +7328,13 @@
         <v>72013</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="H10" s="7">
         <v>131</v>
@@ -7331,13 +7343,13 @@
         <v>96147</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>504</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>204</v>
@@ -7346,13 +7358,13 @@
         <v>168159</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>506</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,13 +7379,13 @@
         <v>234340</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="H11" s="7">
         <v>386</v>
@@ -7382,13 +7394,13 @@
         <v>262099</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>512</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="M11" s="7">
         <v>657</v>
@@ -7397,13 +7409,13 @@
         <v>496440</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>516</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7471,13 +7483,13 @@
         <v>161349</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="H13" s="7">
         <v>263</v>
@@ -7486,13 +7498,13 @@
         <v>190193</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="M13" s="7">
         <v>395</v>
@@ -7501,13 +7513,13 @@
         <v>351541</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>532</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,13 +7534,13 @@
         <v>158301</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="H14" s="7">
         <v>331</v>
@@ -7537,13 +7549,13 @@
         <v>235959</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="M14" s="7">
         <v>487</v>
@@ -7552,13 +7564,13 @@
         <v>394261</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7626,13 +7638,13 @@
         <v>161113</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="H16" s="7">
         <v>419</v>
@@ -7641,13 +7653,13 @@
         <v>198112</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="M16" s="7">
         <v>642</v>
@@ -7656,13 +7668,13 @@
         <v>359225</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7677,13 +7689,13 @@
         <v>23956</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -7692,13 +7704,13 @@
         <v>26813</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
@@ -7707,13 +7719,13 @@
         <v>50769</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7781,13 +7793,13 @@
         <v>47180</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
@@ -7796,13 +7808,13 @@
         <v>53561</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>556</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>127</v>
@@ -7811,13 +7823,13 @@
         <v>100741</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7832,13 +7844,13 @@
         <v>213597</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="H20" s="7">
         <v>364</v>
@@ -7847,13 +7859,13 @@
         <v>210647</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>564</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="M20" s="7">
         <v>657</v>
@@ -7862,13 +7874,13 @@
         <v>424244</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7936,13 +7948,13 @@
         <v>286674</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="H22" s="7">
         <v>426</v>
@@ -7951,13 +7963,13 @@
         <v>422276</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="M22" s="7">
         <v>693</v>
@@ -7966,13 +7978,13 @@
         <v>708950</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7987,13 +7999,13 @@
         <v>321329</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="H23" s="7">
         <v>497</v>
@@ -8002,13 +8014,13 @@
         <v>359433</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="M23" s="7">
         <v>812</v>
@@ -8017,13 +8029,13 @@
         <v>680762</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8091,13 +8103,13 @@
         <v>496413</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>587</v>
+        <v>117</v>
       </c>
       <c r="H25" s="7">
         <v>707</v>
@@ -8106,13 +8118,13 @@
         <v>586377</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>45</v>
+        <v>595</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="M25" s="7">
         <v>1161</v>
@@ -8121,13 +8133,13 @@
         <v>1082790</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>592</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8142,13 +8154,13 @@
         <v>337872</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>594</v>
+        <v>108</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="H26" s="7">
         <v>332</v>
@@ -8157,13 +8169,13 @@
         <v>265692</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>37</v>
+        <v>602</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="M26" s="7">
         <v>622</v>
@@ -8172,13 +8184,13 @@
         <v>603564</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>599</v>
+        <v>256</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8243,16 +8255,16 @@
         <v>1473</v>
       </c>
       <c r="D28" s="7">
-        <v>1534936</v>
+        <v>1534937</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="H28" s="7">
         <v>2518</v>
@@ -8261,13 +8273,13 @@
         <v>1860948</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="M28" s="7">
         <v>3991</v>
@@ -8276,13 +8288,13 @@
         <v>3395885</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>608</v>
+        <v>484</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8297,13 +8309,13 @@
         <v>1741975</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="H29" s="7">
         <v>2699</v>
@@ -8312,13 +8324,13 @@
         <v>1855900</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="M29" s="7">
         <v>4479</v>
@@ -8327,13 +8339,13 @@
         <v>3597875</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>618</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8345,7 +8357,7 @@
         <v>3253</v>
       </c>
       <c r="D30" s="7">
-        <v>3276911</v>
+        <v>3276912</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8389,7 +8401,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C02-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C02-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EFD724D-79F6-482B-9E67-AA1258383388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6CB6C69-C79A-4A9A-A504-B960363C5EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ABE879C3-04F2-4878-812C-22BBC237735F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{45C0503C-07A1-4250-9A3A-3A7BA1579F00}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="646">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2007 (Tasa respuesta: 78,07%)</t>
   </si>
@@ -587,7 +587,58 @@
     <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2012 (Tasa respuesta: 86,83%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
   </si>
   <si>
     <t>23,22%</t>
@@ -692,1222 +743,1240 @@
     <t>76,07%</t>
   </si>
   <si>
-    <t>27,4%</t>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
   </si>
   <si>
     <t>23,59%</t>
   </si>
   <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
   </si>
   <si>
     <t>76,41%</t>
   </si>
   <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
   </si>
   <si>
     <t>47,15%</t>
   </si>
   <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
   </si>
   <si>
     <t>52,85%</t>
   </si>
   <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
   </si>
   <si>
     <t>68,82%</t>
   </si>
   <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
   </si>
   <si>
     <t>31,18%</t>
   </si>
   <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
   </si>
 </sst>
 </file>
@@ -2319,7 +2388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F166FC2-FFF2-4D12-AE6E-8F2AEB83D190}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFFB89A-9C55-4CA3-BB4A-39EE54DABA1A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2661,7 +2730,7 @@
         <v>321</v>
       </c>
       <c r="I8" s="7">
-        <v>322482</v>
+        <v>322481</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2712,7 +2781,7 @@
         <v>437</v>
       </c>
       <c r="I9" s="7">
-        <v>440221</v>
+        <v>440220</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3850,7 +3919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63953E1-62E0-4FA2-BE19-FB6E919DB114}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C160BAE-EA9B-4822-8A8B-5F74D91280E8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3968,43 +4037,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="D4" s="7">
+        <v>62475</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="I4" s="7">
+        <v>65495</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="N4" s="7">
+        <v>127970</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,43 +4088,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>178</v>
+      </c>
+      <c r="D5" s="7">
+        <v>188085</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>164</v>
+      </c>
+      <c r="I5" s="7">
+        <v>185725</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>342</v>
+      </c>
+      <c r="N5" s="7">
+        <v>373810</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,43 +4139,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>241</v>
+      </c>
+      <c r="D6" s="7">
+        <v>250560</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>224</v>
+      </c>
+      <c r="I6" s="7">
+        <v>251220</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>465</v>
+      </c>
+      <c r="N6" s="7">
+        <v>501780</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4198,13 @@
         <v>94110</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>111</v>
@@ -4126,13 +4213,13 @@
         <v>123117</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>199</v>
@@ -4144,10 +4231,10 @@
         <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4249,13 @@
         <v>311172</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="H8" s="7">
         <v>291</v>
@@ -4177,13 +4264,13 @@
         <v>314706</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="M8" s="7">
         <v>584</v>
@@ -4195,10 +4282,10 @@
         <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4353,13 @@
         <v>70557</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7">
         <v>94</v>
@@ -4281,13 +4368,13 @@
         <v>99789</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M10" s="7">
         <v>166</v>
@@ -4296,13 +4383,13 @@
         <v>170345</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4404,13 @@
         <v>222115</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="H11" s="7">
         <v>211</v>
@@ -4332,13 +4419,13 @@
         <v>228963</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="M11" s="7">
         <v>427</v>
@@ -4347,13 +4434,13 @@
         <v>451079</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,49 +4502,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="D13" s="7">
-        <v>154461</v>
+        <v>91985</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="H13" s="7">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="I13" s="7">
-        <v>169241</v>
+        <v>103747</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
-        <v>304</v>
+        <v>181</v>
       </c>
       <c r="N13" s="7">
-        <v>323702</v>
+        <v>195732</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,49 +4553,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>384</v>
+        <v>206</v>
       </c>
       <c r="D14" s="7">
-        <v>409176</v>
+        <v>221092</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>140</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H14" s="7">
         <v>228</v>
       </c>
-      <c r="H14" s="7">
-        <v>392</v>
-      </c>
       <c r="I14" s="7">
-        <v>424793</v>
+        <v>239068</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="M14" s="7">
-        <v>776</v>
+        <v>434</v>
       </c>
       <c r="N14" s="7">
-        <v>833970</v>
+        <v>460159</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,10 +4604,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>530</v>
+        <v>289</v>
       </c>
       <c r="D15" s="7">
-        <v>563637</v>
+        <v>313077</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4532,10 +4619,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>550</v>
+        <v>326</v>
       </c>
       <c r="I15" s="7">
-        <v>594034</v>
+        <v>342815</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4547,10 +4634,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1080</v>
+        <v>615</v>
       </c>
       <c r="N15" s="7">
-        <v>1157672</v>
+        <v>655891</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4576,13 +4663,13 @@
         <v>43915</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -4591,10 +4678,10 @@
         <v>55258</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>108</v>
@@ -4606,13 +4693,13 @@
         <v>99172</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,13 +4714,13 @@
         <v>148143</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="H17" s="7">
         <v>133</v>
@@ -4642,13 +4729,13 @@
         <v>139324</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="M17" s="7">
         <v>269</v>
@@ -4657,13 +4744,13 @@
         <v>287468</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4818,13 @@
         <v>76691</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="H19" s="7">
         <v>69</v>
@@ -4746,13 +4833,13 @@
         <v>70676</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="M19" s="7">
         <v>139</v>
@@ -4761,13 +4848,13 @@
         <v>147367</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4869,13 @@
         <v>173282</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="H20" s="7">
         <v>185</v>
@@ -4797,13 +4884,13 @@
         <v>194154</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="M20" s="7">
         <v>353</v>
@@ -4812,13 +4899,13 @@
         <v>367436</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,10 +4976,10 @@
         <v>170</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="H22" s="7">
         <v>184</v>
@@ -4901,28 +4988,28 @@
         <v>200558</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="M22" s="7">
         <v>333</v>
       </c>
       <c r="N22" s="7">
-        <v>359056</v>
+        <v>359055</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,10 +5027,10 @@
         <v>179</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="H23" s="7">
         <v>388</v>
@@ -4952,13 +5039,13 @@
         <v>425429</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="M23" s="7">
         <v>775</v>
@@ -4967,13 +5054,13 @@
         <v>841010</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,7 +5102,7 @@
         <v>1108</v>
       </c>
       <c r="N24" s="7">
-        <v>1200066</v>
+        <v>1200065</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5041,13 +5128,13 @@
         <v>265631</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="H25" s="7">
         <v>242</v>
@@ -5056,13 +5143,13 @@
         <v>264496</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="M25" s="7">
         <v>491</v>
@@ -5071,13 +5158,13 @@
         <v>530127</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5179,13 @@
         <v>368274</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="H26" s="7">
         <v>404</v>
@@ -5107,13 +5194,13 @@
         <v>437798</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="M26" s="7">
         <v>739</v>
@@ -5122,13 +5209,13 @@
         <v>806072</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,10 +5283,10 @@
         <v>863862</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>94</v>
@@ -5211,13 +5298,13 @@
         <v>983135</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="M28" s="7">
         <v>1727</v>
@@ -5229,10 +5316,10 @@
         <v>51</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5334,13 @@
         <v>2047744</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>102</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="H29" s="7">
         <v>2004</v>
@@ -5262,13 +5349,13 @@
         <v>2165167</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="M29" s="7">
         <v>3923</v>
@@ -5280,10 +5367,10 @@
         <v>60</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,7 +5450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B782A4-3CD3-4FD9-969D-E2B41E688F2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC0411B-F182-47B9-A8BF-01685C9DC36F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5380,7 +5467,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5487,13 +5574,13 @@
         <v>57675</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="H4" s="7">
         <v>62</v>
@@ -5502,13 +5589,13 @@
         <v>63760</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="M4" s="7">
         <v>115</v>
@@ -5517,13 +5604,13 @@
         <v>121434</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5625,13 @@
         <v>187543</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="H5" s="7">
         <v>177</v>
@@ -5553,13 +5640,13 @@
         <v>182574</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="M5" s="7">
         <v>345</v>
@@ -5568,13 +5655,13 @@
         <v>370117</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,13 +5729,13 @@
         <v>102720</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -5657,13 +5744,13 @@
         <v>132682</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="M7" s="7">
         <v>225</v>
@@ -5672,13 +5759,13 @@
         <v>235403</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,13 +5780,13 @@
         <v>260445</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="H8" s="7">
         <v>244</v>
@@ -5708,13 +5795,13 @@
         <v>260645</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="M8" s="7">
         <v>489</v>
@@ -5723,13 +5810,13 @@
         <v>521089</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,13 +5884,13 @@
         <v>66632</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="H10" s="7">
         <v>78</v>
@@ -5812,13 +5899,13 @@
         <v>77358</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="M10" s="7">
         <v>148</v>
@@ -5827,13 +5914,13 @@
         <v>143989</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,16 +5932,16 @@
         <v>233</v>
       </c>
       <c r="D11" s="7">
-        <v>223874</v>
+        <v>223875</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="H11" s="7">
         <v>227</v>
@@ -5863,13 +5950,13 @@
         <v>230406</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="M11" s="7">
         <v>460</v>
@@ -5878,13 +5965,13 @@
         <v>454281</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,7 +5983,7 @@
         <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>290506</v>
+        <v>290507</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5952,13 +6039,13 @@
         <v>83201</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="H13" s="7">
         <v>83</v>
@@ -5967,13 +6054,13 @@
         <v>87404</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="M13" s="7">
         <v>162</v>
@@ -5982,13 +6069,13 @@
         <v>170605</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +6090,13 @@
         <v>246846</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="H14" s="7">
         <v>240</v>
@@ -6018,13 +6105,13 @@
         <v>261457</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="M14" s="7">
         <v>475</v>
@@ -6033,13 +6120,13 @@
         <v>508303</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6194,13 @@
         <v>80643</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="H16" s="7">
         <v>106</v>
@@ -6122,13 +6209,13 @@
         <v>100873</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>184</v>
@@ -6137,13 +6224,13 @@
         <v>181516</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,13 +6245,13 @@
         <v>38579</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -6173,13 +6260,13 @@
         <v>44627</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -6188,13 +6275,13 @@
         <v>83206</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6349,13 @@
         <v>54716</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
@@ -6277,13 +6364,13 @@
         <v>78177</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="M19" s="7">
         <v>130</v>
@@ -6292,13 +6379,13 @@
         <v>132894</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6400,13 @@
         <v>178899</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="H20" s="7">
         <v>164</v>
@@ -6328,13 +6415,13 @@
         <v>168960</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="M20" s="7">
         <v>340</v>
@@ -6343,13 +6430,13 @@
         <v>347859</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,13 +6504,13 @@
         <v>143380</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -6432,13 +6519,13 @@
         <v>166438</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="M22" s="7">
         <v>284</v>
@@ -6447,13 +6534,13 @@
         <v>309819</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +6555,13 @@
         <v>298927</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="H23" s="7">
         <v>303</v>
@@ -6483,13 +6570,13 @@
         <v>320613</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="M23" s="7">
         <v>563</v>
@@ -6498,13 +6585,13 @@
         <v>619539</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,13 +6659,13 @@
         <v>339484</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="H25" s="7">
         <v>331</v>
@@ -6587,13 +6674,13 @@
         <v>359580</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="M25" s="7">
         <v>658</v>
@@ -6602,13 +6689,13 @@
         <v>699064</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,28 +6710,28 @@
         <v>300768</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="H26" s="7">
         <v>304</v>
       </c>
       <c r="I26" s="7">
-        <v>331762</v>
+        <v>331761</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="M26" s="7">
         <v>593</v>
@@ -6653,13 +6740,13 @@
         <v>632529</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6686,7 +6773,7 @@
         <v>635</v>
       </c>
       <c r="I27" s="7">
-        <v>691342</v>
+        <v>691341</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -6727,13 +6814,13 @@
         <v>928451</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="H28" s="7">
         <v>1022</v>
@@ -6742,13 +6829,13 @@
         <v>1066273</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>464</v>
+        <v>237</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="M28" s="7">
         <v>1906</v>
@@ -6757,13 +6844,13 @@
         <v>1994724</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6775,16 +6862,16 @@
         <v>1646</v>
       </c>
       <c r="D29" s="7">
-        <v>1735883</v>
+        <v>1735882</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="H29" s="7">
         <v>1705</v>
@@ -6793,28 +6880,28 @@
         <v>1801042</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>474</v>
+        <v>243</v>
       </c>
       <c r="M29" s="7">
         <v>3351</v>
       </c>
       <c r="N29" s="7">
-        <v>3536925</v>
+        <v>3536924</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6826,7 +6913,7 @@
         <v>2530</v>
       </c>
       <c r="D30" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -6856,7 +6943,7 @@
         <v>5257</v>
       </c>
       <c r="N30" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6894,7 +6981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97AEDCA-3EE6-4F9C-9BBB-226111C991DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BBF8CE-F000-4331-8CFB-598E0CE5E7F2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6911,7 +6998,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7015,46 +7102,46 @@
         <v>147</v>
       </c>
       <c r="D4" s="7">
-        <v>121967</v>
+        <v>146886</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="H4" s="7">
         <v>257</v>
       </c>
       <c r="I4" s="7">
-        <v>123877</v>
+        <v>130754</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>453</v>
+        <v>493</v>
       </c>
       <c r="M4" s="7">
         <v>404</v>
       </c>
       <c r="N4" s="7">
-        <v>245845</v>
+        <v>277640</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7066,46 +7153,46 @@
         <v>170</v>
       </c>
       <c r="D5" s="7">
-        <v>133303</v>
+        <v>158544</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="H5" s="7">
         <v>274</v>
       </c>
       <c r="I5" s="7">
-        <v>145567</v>
+        <v>156853</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>443</v>
+        <v>501</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="M5" s="7">
         <v>444</v>
       </c>
       <c r="N5" s="7">
-        <v>278870</v>
+        <v>315397</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7117,7 +7204,7 @@
         <v>317</v>
       </c>
       <c r="D6" s="7">
-        <v>255270</v>
+        <v>305430</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7132,7 +7219,7 @@
         <v>531</v>
       </c>
       <c r="I6" s="7">
-        <v>269444</v>
+        <v>287607</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7147,7 +7234,7 @@
         <v>848</v>
       </c>
       <c r="N6" s="7">
-        <v>524715</v>
+        <v>593037</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7170,46 +7257,46 @@
         <v>126</v>
       </c>
       <c r="D7" s="7">
-        <v>188228</v>
+        <v>190856</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="H7" s="7">
         <v>239</v>
       </c>
       <c r="I7" s="7">
-        <v>190405</v>
+        <v>178033</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="M7" s="7">
         <v>365</v>
       </c>
       <c r="N7" s="7">
-        <v>378632</v>
+        <v>368889</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>291</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,46 +7308,46 @@
         <v>245</v>
       </c>
       <c r="D8" s="7">
-        <v>319276</v>
+        <v>316128</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="H8" s="7">
         <v>457</v>
       </c>
       <c r="I8" s="7">
-        <v>349689</v>
+        <v>323515</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="M8" s="7">
         <v>702</v>
       </c>
       <c r="N8" s="7">
-        <v>668966</v>
+        <v>639643</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>300</v>
+        <v>522</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7272,7 +7359,7 @@
         <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>507504</v>
+        <v>506984</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7287,7 +7374,7 @@
         <v>696</v>
       </c>
       <c r="I9" s="7">
-        <v>540094</v>
+        <v>501548</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7302,7 +7389,7 @@
         <v>1067</v>
       </c>
       <c r="N9" s="7">
-        <v>1047598</v>
+        <v>1008532</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7325,46 +7412,46 @@
         <v>73</v>
       </c>
       <c r="D10" s="7">
-        <v>72013</v>
+        <v>70826</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="H10" s="7">
         <v>131</v>
       </c>
       <c r="I10" s="7">
-        <v>96147</v>
+        <v>90508</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>529</v>
       </c>
       <c r="M10" s="7">
         <v>204</v>
       </c>
       <c r="N10" s="7">
-        <v>168159</v>
+        <v>161334</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>516</v>
+        <v>220</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>530</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7376,46 +7463,46 @@
         <v>271</v>
       </c>
       <c r="D11" s="7">
-        <v>234340</v>
+        <v>229401</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="H11" s="7">
         <v>386</v>
       </c>
       <c r="I11" s="7">
-        <v>262099</v>
+        <v>244767</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>536</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="M11" s="7">
         <v>657</v>
       </c>
       <c r="N11" s="7">
-        <v>496440</v>
+        <v>474168</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>523</v>
+        <v>230</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7427,7 +7514,7 @@
         <v>344</v>
       </c>
       <c r="D12" s="7">
-        <v>306353</v>
+        <v>300227</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7442,7 +7529,7 @@
         <v>517</v>
       </c>
       <c r="I12" s="7">
-        <v>358246</v>
+        <v>335275</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7457,7 +7544,7 @@
         <v>861</v>
       </c>
       <c r="N12" s="7">
-        <v>664599</v>
+        <v>635502</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7480,46 +7567,46 @@
         <v>132</v>
       </c>
       <c r="D13" s="7">
-        <v>161349</v>
+        <v>155961</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="H13" s="7">
         <v>263</v>
       </c>
       <c r="I13" s="7">
-        <v>190193</v>
+        <v>176231</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="M13" s="7">
         <v>395</v>
       </c>
       <c r="N13" s="7">
-        <v>351541</v>
+        <v>332191</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>532</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7531,46 +7618,46 @@
         <v>156</v>
       </c>
       <c r="D14" s="7">
-        <v>158301</v>
+        <v>154159</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="H14" s="7">
         <v>331</v>
       </c>
       <c r="I14" s="7">
-        <v>235959</v>
+        <v>297234</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="M14" s="7">
         <v>487</v>
       </c>
       <c r="N14" s="7">
-        <v>394261</v>
+        <v>451394</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>542</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7582,7 +7669,7 @@
         <v>288</v>
       </c>
       <c r="D15" s="7">
-        <v>319650</v>
+        <v>310120</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7597,7 +7684,7 @@
         <v>594</v>
       </c>
       <c r="I15" s="7">
-        <v>426152</v>
+        <v>473465</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7612,7 +7699,7 @@
         <v>882</v>
       </c>
       <c r="N15" s="7">
-        <v>745802</v>
+        <v>783585</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7635,46 +7722,46 @@
         <v>223</v>
       </c>
       <c r="D16" s="7">
-        <v>161113</v>
+        <v>146656</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="H16" s="7">
         <v>419</v>
       </c>
       <c r="I16" s="7">
-        <v>198112</v>
+        <v>178082</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="M16" s="7">
         <v>642</v>
       </c>
       <c r="N16" s="7">
-        <v>359225</v>
+        <v>324738</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7686,46 +7773,46 @@
         <v>40</v>
       </c>
       <c r="D17" s="7">
-        <v>23956</v>
+        <v>21773</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
       </c>
       <c r="I17" s="7">
-        <v>26813</v>
+        <v>24210</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
       </c>
       <c r="N17" s="7">
-        <v>50769</v>
+        <v>45983</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7737,7 +7824,7 @@
         <v>263</v>
       </c>
       <c r="D18" s="7">
-        <v>185069</v>
+        <v>168429</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7752,7 +7839,7 @@
         <v>477</v>
       </c>
       <c r="I18" s="7">
-        <v>224925</v>
+        <v>202292</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7767,7 +7854,7 @@
         <v>740</v>
       </c>
       <c r="N18" s="7">
-        <v>409994</v>
+        <v>370721</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7790,46 +7877,46 @@
         <v>51</v>
       </c>
       <c r="D19" s="7">
-        <v>47180</v>
+        <v>45792</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
       </c>
       <c r="I19" s="7">
-        <v>53561</v>
+        <v>49696</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>579</v>
       </c>
       <c r="M19" s="7">
         <v>127</v>
       </c>
       <c r="N19" s="7">
-        <v>100741</v>
+        <v>95488</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7841,46 +7928,46 @@
         <v>293</v>
       </c>
       <c r="D20" s="7">
-        <v>213597</v>
+        <v>207940</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="H20" s="7">
         <v>364</v>
       </c>
       <c r="I20" s="7">
-        <v>210647</v>
+        <v>196654</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>587</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="M20" s="7">
         <v>657</v>
       </c>
       <c r="N20" s="7">
-        <v>424244</v>
+        <v>404594</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7892,7 +7979,7 @@
         <v>344</v>
       </c>
       <c r="D21" s="7">
-        <v>260777</v>
+        <v>253732</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7907,7 +7994,7 @@
         <v>440</v>
       </c>
       <c r="I21" s="7">
-        <v>264208</v>
+        <v>246350</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7922,7 +8009,7 @@
         <v>784</v>
       </c>
       <c r="N21" s="7">
-        <v>524985</v>
+        <v>500082</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7945,46 +8032,46 @@
         <v>267</v>
       </c>
       <c r="D22" s="7">
-        <v>286674</v>
+        <v>283080</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="H22" s="7">
         <v>426</v>
       </c>
       <c r="I22" s="7">
-        <v>422276</v>
+        <v>494480</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>490</v>
+        <v>595</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
       <c r="M22" s="7">
         <v>693</v>
       </c>
       <c r="N22" s="7">
-        <v>708950</v>
+        <v>777561</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7996,46 +8083,46 @@
         <v>315</v>
       </c>
       <c r="D23" s="7">
-        <v>321329</v>
+        <v>317319</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="H23" s="7">
         <v>497</v>
       </c>
       <c r="I23" s="7">
-        <v>359433</v>
+        <v>333885</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>482</v>
+        <v>604</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="M23" s="7">
         <v>812</v>
       </c>
       <c r="N23" s="7">
-        <v>680762</v>
+        <v>651204</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8047,7 +8134,7 @@
         <v>582</v>
       </c>
       <c r="D24" s="7">
-        <v>608003</v>
+        <v>600399</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8062,7 +8149,7 @@
         <v>923</v>
       </c>
       <c r="I24" s="7">
-        <v>781709</v>
+        <v>828365</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8077,7 +8164,7 @@
         <v>1505</v>
       </c>
       <c r="N24" s="7">
-        <v>1389712</v>
+        <v>1428765</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8100,46 +8187,46 @@
         <v>454</v>
       </c>
       <c r="D25" s="7">
-        <v>496413</v>
+        <v>420558</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>117</v>
+        <v>612</v>
       </c>
       <c r="H25" s="7">
         <v>707</v>
       </c>
       <c r="I25" s="7">
-        <v>586377</v>
+        <v>484425</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="M25" s="7">
         <v>1161</v>
       </c>
       <c r="N25" s="7">
-        <v>1082790</v>
+        <v>904983</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>264</v>
+        <v>618</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8151,46 +8238,46 @@
         <v>290</v>
       </c>
       <c r="D26" s="7">
-        <v>337872</v>
+        <v>488081</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>600</v>
+        <v>619</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>108</v>
+        <v>620</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="H26" s="7">
         <v>332</v>
       </c>
       <c r="I26" s="7">
-        <v>265692</v>
+        <v>219499</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>604</v>
+        <v>624</v>
       </c>
       <c r="M26" s="7">
         <v>622</v>
       </c>
       <c r="N26" s="7">
-        <v>603564</v>
+        <v>707580</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>256</v>
+        <v>626</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>606</v>
+        <v>627</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8202,7 +8289,7 @@
         <v>744</v>
       </c>
       <c r="D27" s="7">
-        <v>834285</v>
+        <v>908639</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8217,7 +8304,7 @@
         <v>1039</v>
       </c>
       <c r="I27" s="7">
-        <v>852069</v>
+        <v>703924</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8232,7 +8319,7 @@
         <v>1783</v>
       </c>
       <c r="N27" s="7">
-        <v>1686354</v>
+        <v>1612563</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8255,46 +8342,46 @@
         <v>1473</v>
       </c>
       <c r="D28" s="7">
-        <v>1534937</v>
+        <v>1460614</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>607</v>
+        <v>628</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>608</v>
+        <v>629</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>609</v>
+        <v>630</v>
       </c>
       <c r="H28" s="7">
         <v>2518</v>
       </c>
       <c r="I28" s="7">
-        <v>1860948</v>
+        <v>1782210</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>610</v>
+        <v>631</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>611</v>
+        <v>632</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>612</v>
+        <v>633</v>
       </c>
       <c r="M28" s="7">
         <v>3991</v>
       </c>
       <c r="N28" s="7">
-        <v>3395885</v>
+        <v>3242824</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>613</v>
+        <v>634</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>484</v>
+        <v>635</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>614</v>
+        <v>636</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8306,46 +8393,46 @@
         <v>1780</v>
       </c>
       <c r="D29" s="7">
-        <v>1741975</v>
+        <v>1893346</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>616</v>
+        <v>638</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>617</v>
+        <v>639</v>
       </c>
       <c r="H29" s="7">
         <v>2699</v>
       </c>
       <c r="I29" s="7">
-        <v>1855900</v>
+        <v>1796617</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>619</v>
+        <v>641</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="M29" s="7">
         <v>4479</v>
       </c>
       <c r="N29" s="7">
-        <v>3597875</v>
+        <v>3689963</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>621</v>
+        <v>643</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>622</v>
+        <v>644</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>492</v>
+        <v>645</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8357,7 +8444,7 @@
         <v>3253</v>
       </c>
       <c r="D30" s="7">
-        <v>3276912</v>
+        <v>3353960</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8372,7 +8459,7 @@
         <v>5217</v>
       </c>
       <c r="I30" s="7">
-        <v>3716848</v>
+        <v>3578827</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8387,7 +8474,7 @@
         <v>8470</v>
       </c>
       <c r="N30" s="7">
-        <v>6993760</v>
+        <v>6932787</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
